--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Sprint 2/Sprint 2 Backlog CalmaVR.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Sprint 2/Sprint 2 Backlog CalmaVR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alons\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:1_{139691B8-52F2-4772-866A-DE608C149D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB70B962-BEED-45F1-ABF0-C44A1ABD178E}"/>
+  <xr:revisionPtr revIDLastSave="256" documentId="13_ncr:1_{139691B8-52F2-4772-866A-DE608C149D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCA76650-C19F-4330-BFEB-911898BC5A56}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,7 +149,7 @@
     <t>Alonso</t>
   </si>
   <si>
-    <t>Pendiente</t>
+    <t>Completado</t>
   </si>
   <si>
     <t>CALMA-002</t>
@@ -158,7 +158,7 @@
     <t>Desarrollo de terapias básicas (respiración, música, etc...) </t>
   </si>
   <si>
-    <t>Danitsa</t>
+    <t>Danitsa, Alonso</t>
   </si>
   <si>
     <t>CALMA-003</t>
@@ -170,7 +170,7 @@
     <t>Implementación de guía auditiva con voz empática </t>
   </si>
   <si>
-    <t>Renata</t>
+    <t>Renata, Alonso</t>
   </si>
   <si>
     <t>Lista de tareas de la iteración (Sprint Backlog): Instructivo</t>
@@ -762,7 +762,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
     </sheetView>
@@ -1144,135 +1144,139 @@
         <v>35</v>
       </c>
       <c r="G6" s="18">
+        <v>8</v>
+      </c>
+      <c r="H6" s="7">
         <v>4</v>
       </c>
-      <c r="H6" s="7"/>
       <c r="I6" s="7">
         <f t="shared" ref="I6:I8" si="0">G6-H6</f>
         <v>4</v>
       </c>
       <c r="J6" s="9"/>
-      <c r="K6" s="7"/>
+      <c r="K6" s="7">
+        <v>4</v>
+      </c>
       <c r="L6" s="7">
         <f t="shared" ref="L6:L8" si="1">I6-K6</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7">
         <f t="shared" ref="O6:O8" si="2">L6-N6</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7">
         <f t="shared" ref="R6:R8" si="3">O6-Q6</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S6" s="9"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7">
         <f t="shared" ref="U6:U8" si="4">R6-T6</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V6" s="9"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7">
         <f t="shared" ref="X6:X8" si="5">U6-W6</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="9"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7">
         <f t="shared" ref="AA6:AA8" si="6">X6-Z6</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="9"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7">
         <f t="shared" ref="AD6:AD8" si="7">AA6-AC6</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="9"/>
       <c r="AF6" s="7"/>
       <c r="AG6" s="7">
         <f t="shared" ref="AG6:AG8" si="8">AD6-AF6</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="9"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7">
         <f t="shared" ref="AJ6:AJ8" si="9">AG6-AI6</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="9"/>
       <c r="AL6" s="7"/>
       <c r="AM6" s="7">
         <f t="shared" ref="AM6:AM8" si="10">AJ6-AL6</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN6" s="9"/>
       <c r="AO6" s="7"/>
       <c r="AP6" s="7">
         <f t="shared" ref="AP6:AP8" si="11">AM6-AO6</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AQ6" s="9"/>
       <c r="AR6" s="7"/>
       <c r="AS6" s="7">
         <f t="shared" ref="AS6:AS8" si="12">AP6-AR6</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="9"/>
       <c r="AU6" s="7"/>
       <c r="AV6" s="7">
         <f t="shared" ref="AV6:AV8" si="13">AS6-AU6</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW6" s="9"/>
       <c r="AX6" s="7"/>
       <c r="AY6" s="7">
         <f t="shared" ref="AY6:AY8" si="14">AV6-AX6</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="9"/>
       <c r="BA6" s="7"/>
       <c r="BB6" s="7">
         <f t="shared" ref="BB6:BB8" si="15">AY6-BA6</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BC6" s="9"/>
       <c r="BD6" s="7"/>
       <c r="BE6" s="7">
         <f t="shared" ref="BE6:BE8" si="16">BB6-BD6</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="9"/>
       <c r="BG6" s="7"/>
       <c r="BH6" s="7">
         <f t="shared" ref="BH6:BH8" si="17">BE6-BG6</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="9"/>
       <c r="BJ6" s="7"/>
       <c r="BK6" s="7">
         <f t="shared" ref="BK6:BK8" si="18">BH6-BJ6</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BL6" s="9"/>
       <c r="BM6" s="7"/>
       <c r="BN6" s="7">
         <f t="shared" ref="BN6:BN8" si="19">BK6-BM6</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BO6" s="9"/>
       <c r="BP6" s="10">
         <f t="shared" ref="BP6:BP8" si="20">H6+K6+N6+Q6+T6+W6+Z6+AC6+AF6+AI6+AL6+AO6+AR6+AU6+AX6+BA6+BD6+BG6+BJ6+BM6</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BQ6" s="10">
         <f t="shared" ref="BQ6:BQ8" si="21">G6-BP6</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:69" ht="56.25">
@@ -1292,14 +1296,14 @@
         <v>35</v>
       </c>
       <c r="G7" s="18">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="7">
@@ -1307,130 +1311,138 @@
       </c>
       <c r="L7" s="7">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O7" s="7">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R7" s="7">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="S7" s="9"/>
       <c r="T7" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U7" s="7">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V7" s="9"/>
-      <c r="W7" s="7"/>
+      <c r="W7" s="7">
+        <v>7</v>
+      </c>
       <c r="X7" s="7">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Y7" s="9"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AB7" s="9"/>
-      <c r="AC7" s="7"/>
+      <c r="AC7" s="7">
+        <v>4</v>
+      </c>
       <c r="AD7" s="7">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AE7" s="9"/>
-      <c r="AF7" s="7"/>
+      <c r="AF7" s="7">
+        <v>1</v>
+      </c>
       <c r="AG7" s="7">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AH7" s="9"/>
-      <c r="AI7" s="7"/>
+      <c r="AI7" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ7" s="7">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="9"/>
       <c r="AL7" s="7"/>
       <c r="AM7" s="7">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AN7" s="9"/>
       <c r="AO7" s="7"/>
       <c r="AP7" s="7">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ7" s="9"/>
       <c r="AR7" s="7"/>
       <c r="AS7" s="7">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="9"/>
       <c r="AU7" s="7"/>
       <c r="AV7" s="7">
         <f t="shared" si="13"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AW7" s="9"/>
       <c r="AX7" s="7"/>
       <c r="AY7" s="7">
         <f t="shared" si="14"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="9"/>
       <c r="BA7" s="7"/>
       <c r="BB7" s="7">
         <f t="shared" si="15"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BC7" s="9"/>
       <c r="BD7" s="7"/>
       <c r="BE7" s="7">
         <f t="shared" si="16"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BF7" s="9"/>
       <c r="BG7" s="7"/>
       <c r="BH7" s="7">
         <f t="shared" si="17"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="9"/>
       <c r="BJ7" s="7"/>
       <c r="BK7" s="7">
         <f t="shared" si="18"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BL7" s="9"/>
       <c r="BM7" s="7"/>
       <c r="BN7" s="7">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BO7" s="9"/>
       <c r="BP7" s="10">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="BQ7" s="10">
         <f t="shared" si="21"/>
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:69" ht="45.75">
@@ -1450,139 +1462,173 @@
         <v>35</v>
       </c>
       <c r="G8" s="18">
-        <v>16</v>
-      </c>
-      <c r="H8" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="H8" s="7">
+        <v>4</v>
+      </c>
       <c r="I8" s="7">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="J8" s="9"/>
-      <c r="K8" s="7"/>
+      <c r="K8" s="7">
+        <v>6</v>
+      </c>
       <c r="L8" s="7">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O8" s="7">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P8" s="9"/>
-      <c r="Q8" s="7"/>
+      <c r="Q8" s="7">
+        <v>6</v>
+      </c>
       <c r="R8" s="7">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="S8" s="9"/>
       <c r="T8" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U8" s="7">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="V8" s="9"/>
-      <c r="W8" s="7"/>
+      <c r="W8" s="7">
+        <v>4</v>
+      </c>
       <c r="X8" s="7">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Y8" s="9"/>
-      <c r="Z8" s="7"/>
+      <c r="Z8" s="7">
+        <v>4</v>
+      </c>
       <c r="AA8" s="7">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AB8" s="9"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AE8" s="9"/>
-      <c r="AF8" s="7"/>
+      <c r="AF8" s="7">
+        <v>0</v>
+      </c>
       <c r="AG8" s="7">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AH8" s="9"/>
-      <c r="AI8" s="7"/>
+      <c r="AI8" s="7">
+        <v>0</v>
+      </c>
       <c r="AJ8" s="7">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AK8" s="9"/>
-      <c r="AL8" s="7"/>
+      <c r="AL8" s="7">
+        <v>0</v>
+      </c>
       <c r="AM8" s="7">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AN8" s="9"/>
-      <c r="AO8" s="7"/>
+      <c r="AO8" s="7">
+        <v>2</v>
+      </c>
       <c r="AP8" s="7">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AQ8" s="9"/>
-      <c r="AR8" s="7"/>
+      <c r="AR8" s="7">
+        <v>4</v>
+      </c>
       <c r="AS8" s="7">
         <f t="shared" si="12"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="9"/>
-      <c r="AU8" s="7"/>
+      <c r="AU8" s="7">
+        <v>0</v>
+      </c>
       <c r="AV8" s="7">
         <f t="shared" si="13"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AW8" s="9"/>
-      <c r="AX8" s="7"/>
+      <c r="AX8" s="7">
+        <v>0</v>
+      </c>
       <c r="AY8" s="7">
         <f t="shared" si="14"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="9"/>
-      <c r="BA8" s="7"/>
+      <c r="BA8" s="7">
+        <v>0</v>
+      </c>
       <c r="BB8" s="7">
         <f t="shared" si="15"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BC8" s="9"/>
-      <c r="BD8" s="7"/>
+      <c r="BD8" s="7">
+        <v>0</v>
+      </c>
       <c r="BE8" s="7">
         <f t="shared" si="16"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BF8" s="9"/>
-      <c r="BG8" s="7"/>
+      <c r="BG8" s="7">
+        <v>0</v>
+      </c>
       <c r="BH8" s="7">
         <f t="shared" si="17"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="9"/>
-      <c r="BJ8" s="7"/>
+      <c r="BJ8" s="7">
+        <v>0</v>
+      </c>
       <c r="BK8" s="7">
         <f t="shared" si="18"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BL8" s="9"/>
-      <c r="BM8" s="7"/>
+      <c r="BM8" s="7">
+        <v>0</v>
+      </c>
       <c r="BN8" s="7">
         <f t="shared" si="19"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BO8" s="9"/>
       <c r="BP8" s="10">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="BQ8" s="10">
         <f t="shared" si="21"/>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:69" ht="15"/>
